--- a/Scrum_Unterlagen/Burndown_Chart_Vorlage_Ausnahme.xlsx
+++ b/Scrum_Unterlagen/Burndown_Chart_Vorlage_Ausnahme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Startklar\Documents\GitHub\T1_TableCast\Scrum_Unterlagen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CDBFCC-1675-4BA5-97F8-03B1DA0FCA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E9E395-0407-4E91-A0A1-49F54629A854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{8A0F6DEF-9CCD-4085-B528-61F5806CE436}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{8A0F6DEF-9CCD-4085-B528-61F5806CE436}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Ausgewählt gesamt</t>
   </si>
   <si>
-    <t>durch 2</t>
-  </si>
-  <si>
     <t>durch 5</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>Total:</t>
+  </si>
+  <si>
+    <t>durch 3</t>
   </si>
 </sst>
 </file>
@@ -222,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -238,9 +238,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2110,8 +2107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C88E1FE-E14A-4E89-9590-0A003BC27935}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="104" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2179,13 +2176,13 @@
         <v>51</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2325,7 +2322,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
+      <c r="A16" s="14">
         <v>45014</v>
       </c>
       <c r="B16" s="13">
@@ -2344,7 +2341,7 @@
         <f>B16-3.4</f>
         <v>13.600000000000014</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="10">
         <v>48</v>
       </c>
     </row>
@@ -2356,7 +2353,7 @@
         <f>B17-3.4</f>
         <v>10.200000000000014</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="10">
         <v>48</v>
       </c>
     </row>
@@ -2365,130 +2362,130 @@
         <v>45017</v>
       </c>
       <c r="B19" s="13">
-        <f>B18</f>
+        <f t="shared" ref="B19:B27" si="0">B18</f>
         <v>10.200000000000014</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="10">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="16">
+      <c r="A20" s="14">
         <v>45018</v>
       </c>
       <c r="B20" s="13">
-        <f>B19</f>
+        <f t="shared" si="0"/>
         <v>10.200000000000014</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="10">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="16">
+      <c r="A21" s="14">
         <v>45019</v>
       </c>
       <c r="B21" s="13">
-        <f>B20</f>
+        <f t="shared" si="0"/>
         <v>10.200000000000014</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="10">
         <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="16">
+      <c r="A22" s="14">
         <v>45020</v>
       </c>
       <c r="B22" s="13">
-        <f>B21</f>
+        <f t="shared" si="0"/>
         <v>10.200000000000014</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="10">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="16">
+      <c r="A23" s="14">
         <v>45021</v>
       </c>
       <c r="B23" s="13">
-        <f>B22</f>
+        <f t="shared" si="0"/>
         <v>10.200000000000014</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="10">
         <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="16">
+      <c r="A24" s="14">
         <v>45022</v>
       </c>
       <c r="B24" s="13">
-        <f>B23</f>
+        <f t="shared" si="0"/>
         <v>10.200000000000014</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="10">
         <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="16">
+      <c r="A25" s="14">
         <v>45023</v>
       </c>
       <c r="B25" s="13">
-        <f>B24</f>
+        <f t="shared" si="0"/>
         <v>10.200000000000014</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="10">
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="16">
+      <c r="A26" s="14">
         <v>45024</v>
       </c>
       <c r="B26" s="13">
-        <f>B25</f>
+        <f t="shared" si="0"/>
         <v>10.200000000000014</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="10">
         <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="16">
+      <c r="A27" s="14">
         <v>45025</v>
       </c>
       <c r="B27" s="13">
-        <f>B26</f>
+        <f t="shared" si="0"/>
         <v>10.200000000000014</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="10">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="16">
+      <c r="A28" s="14">
         <v>45026</v>
       </c>
       <c r="B28" s="13">
         <f>B27-3.4</f>
         <v>6.8000000000000131</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="10">
         <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="16">
+      <c r="A29" s="14">
         <v>45027</v>
       </c>
       <c r="B29" s="13">
         <f>B28-3.4</f>
         <v>3.4000000000000132</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="10">
         <v>48</v>
       </c>
     </row>
@@ -2499,7 +2496,7 @@
       <c r="B30" s="5">
         <v>0</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="6">
         <v>48</v>
       </c>
     </row>
@@ -2518,7 +2515,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C34">
         <f>C33/3</f>
@@ -2527,7 +2524,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35">
         <f>C34/5</f>

--- a/Scrum_Unterlagen/Burndown_Chart_Vorlage_Ausnahme.xlsx
+++ b/Scrum_Unterlagen/Burndown_Chart_Vorlage_Ausnahme.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Startklar\Documents\GitHub\T1_TableCast\Scrum_Unterlagen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E9E395-0407-4E91-A0A1-49F54629A854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A78DAD3-4B56-4082-A4B1-7B3AB3920CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{8A0F6DEF-9CCD-4085-B528-61F5806CE436}"/>
   </bookViews>
@@ -65,7 +65,7 @@
     <t>Total:</t>
   </si>
   <si>
-    <t>durch 3</t>
+    <t>durch 4</t>
   </si>
 </sst>
 </file>
@@ -222,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -234,10 +234,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -311,91 +309,91 @@
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>45000</c:v>
+                  <c:v>45042</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45001</c:v>
+                  <c:v>45043</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45002</c:v>
+                  <c:v>45044</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45003</c:v>
+                  <c:v>45045</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45004</c:v>
+                  <c:v>45046</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45005</c:v>
+                  <c:v>45047</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45006</c:v>
+                  <c:v>45048</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45007</c:v>
+                  <c:v>45049</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45008</c:v>
+                  <c:v>45050</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45009</c:v>
+                  <c:v>45051</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45010</c:v>
+                  <c:v>45052</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45011</c:v>
+                  <c:v>45053</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45012</c:v>
+                  <c:v>45054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45013</c:v>
+                  <c:v>45055</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45014</c:v>
+                  <c:v>45056</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45015</c:v>
+                  <c:v>45057</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45016</c:v>
+                  <c:v>45058</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45017</c:v>
+                  <c:v>45059</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45018</c:v>
+                  <c:v>45060</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45019</c:v>
+                  <c:v>45061</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45020</c:v>
+                  <c:v>45062</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45021</c:v>
+                  <c:v>45063</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45022</c:v>
+                  <c:v>45064</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45023</c:v>
+                  <c:v>45065</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45024</c:v>
+                  <c:v>45066</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45025</c:v>
+                  <c:v>45067</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45026</c:v>
+                  <c:v>45068</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45027</c:v>
+                  <c:v>45069</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45028</c:v>
+                  <c:v>45070</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -407,88 +405,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>51</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.6</c:v>
+                  <c:v>53.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44.2</c:v>
+                  <c:v>50.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.800000000000004</c:v>
+                  <c:v>47.600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.800000000000004</c:v>
+                  <c:v>47.600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.800000000000004</c:v>
+                  <c:v>47.600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.400000000000006</c:v>
+                  <c:v>44.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.000000000000007</c:v>
+                  <c:v>42.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.600000000000009</c:v>
+                  <c:v>39.200000000000017</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27.20000000000001</c:v>
+                  <c:v>36.40000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23.800000000000011</c:v>
+                  <c:v>33.600000000000023</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23.800000000000011</c:v>
+                  <c:v>33.600000000000023</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23.800000000000011</c:v>
+                  <c:v>33.600000000000023</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20.400000000000013</c:v>
+                  <c:v>30.800000000000022</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.000000000000014</c:v>
+                  <c:v>28.000000000000021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.600000000000014</c:v>
+                  <c:v>25.200000000000021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.200000000000014</c:v>
+                  <c:v>22.40000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.200000000000014</c:v>
+                  <c:v>22.40000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.200000000000014</c:v>
+                  <c:v>22.40000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.200000000000014</c:v>
+                  <c:v>19.600000000000019</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.200000000000014</c:v>
+                  <c:v>16.800000000000018</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.200000000000014</c:v>
+                  <c:v>14.000000000000018</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10.200000000000014</c:v>
+                  <c:v>11.200000000000017</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.200000000000014</c:v>
+                  <c:v>8.4000000000000163</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10.200000000000014</c:v>
+                  <c:v>8.4000000000000163</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10.200000000000014</c:v>
+                  <c:v>8.4000000000000163</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.8000000000000131</c:v>
+                  <c:v>5.6000000000000165</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.4000000000000132</c:v>
+                  <c:v>2.8000000000000167</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
@@ -536,91 +534,91 @@
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>45000</c:v>
+                  <c:v>45042</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45001</c:v>
+                  <c:v>45043</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45002</c:v>
+                  <c:v>45044</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45003</c:v>
+                  <c:v>45045</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45004</c:v>
+                  <c:v>45046</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45005</c:v>
+                  <c:v>45047</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45006</c:v>
+                  <c:v>45048</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45007</c:v>
+                  <c:v>45049</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45008</c:v>
+                  <c:v>45050</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45009</c:v>
+                  <c:v>45051</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45010</c:v>
+                  <c:v>45052</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45011</c:v>
+                  <c:v>45053</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45012</c:v>
+                  <c:v>45054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45013</c:v>
+                  <c:v>45055</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45014</c:v>
+                  <c:v>45056</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45015</c:v>
+                  <c:v>45057</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45016</c:v>
+                  <c:v>45058</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45017</c:v>
+                  <c:v>45059</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45018</c:v>
+                  <c:v>45060</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45019</c:v>
+                  <c:v>45061</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45020</c:v>
+                  <c:v>45062</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45021</c:v>
+                  <c:v>45063</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45022</c:v>
+                  <c:v>45064</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45023</c:v>
+                  <c:v>45065</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45024</c:v>
+                  <c:v>45066</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45025</c:v>
+                  <c:v>45067</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45026</c:v>
+                  <c:v>45068</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45027</c:v>
+                  <c:v>45069</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45028</c:v>
+                  <c:v>45070</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -632,91 +630,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>51</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>48</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>48</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>48</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1598,13 +1554,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>741027</xdr:colOff>
+      <xdr:colOff>735698</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>230697</xdr:colOff>
+      <xdr:colOff>225368</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -1621,8 +1577,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5557706" y="1846836"/>
-          <a:ext cx="279633" cy="1854457"/>
+          <a:off x="5574132" y="1848303"/>
+          <a:ext cx="283642" cy="1834608"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1668,22 +1624,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>80211</xdr:colOff>
+      <xdr:colOff>81713</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>8679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>475533</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361346</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>31539</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rechteck 4">
+        <xdr:cNvPr id="6" name="Rechteck 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{302EA056-A2FC-4766-992D-9943507AD6C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6C68E76-87B1-4DFE-BE8D-C6F1F3620506}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1691,8 +1647,78 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7276241" y="1852462"/>
-          <a:ext cx="1185969" cy="1867702"/>
+          <a:off x="7302063" y="1841742"/>
+          <a:ext cx="279633" cy="1834608"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-AT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>206280</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>20775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485913</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>43635</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rechteck 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BEE8D42-5D32-4EF1-A59C-B88763141CCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8220602" y="1853838"/>
+          <a:ext cx="279633" cy="1834608"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1738,22 +1764,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>82491</xdr:colOff>
+      <xdr:colOff>72812</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>13842</xdr:rowOff>
+      <xdr:rowOff>13109</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>362124</xdr:colOff>
+      <xdr:colOff>356454</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>36702</xdr:rowOff>
+      <xdr:rowOff>35969</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rechteck 3">
+        <xdr:cNvPr id="8" name="Rechteck 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AF01805-219D-4526-B02A-2F18D2E66144}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B4EAA2D-4622-435B-B71A-6073E5A21459}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1761,8 +1787,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6479097" y="1845438"/>
-          <a:ext cx="279633" cy="1854457"/>
+          <a:off x="6499190" y="1846172"/>
+          <a:ext cx="283642" cy="1834608"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2108,7 +2134,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2120,7 +2146,7 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -2129,51 +2155,52 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
-        <v>45000</v>
-      </c>
-      <c r="B2" s="13">
-        <v>51</v>
+        <v>45042</v>
+      </c>
+      <c r="B2" s="12">
+        <v>56</v>
       </c>
       <c r="C2" s="10">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
-        <v>45001</v>
-      </c>
-      <c r="B3" s="13">
-        <f>B2-3.4</f>
-        <v>47.6</v>
+        <v>45043</v>
+      </c>
+      <c r="B3" s="12">
+        <f>B2-C35</f>
+        <v>53.2</v>
       </c>
       <c r="C3" s="10">
-        <v>51</v>
+        <f>C2</f>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
-        <v>45002</v>
-      </c>
-      <c r="B4" s="13">
-        <f>B3-3.4</f>
-        <v>44.2</v>
+        <v>45044</v>
+      </c>
+      <c r="B4" s="12">
+        <f>B3-C35</f>
+        <v>50.400000000000006</v>
       </c>
       <c r="C4" s="10">
         <f>C3</f>
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
-        <v>45003</v>
-      </c>
-      <c r="B5" s="13">
-        <f>B4-3.4</f>
-        <v>40.800000000000004</v>
+        <v>45045</v>
+      </c>
+      <c r="B5" s="12">
+        <f>B4-C35</f>
+        <v>47.600000000000009</v>
       </c>
       <c r="C5" s="10">
-        <f>C4</f>
-        <v>51</v>
+        <f t="shared" ref="C5:C9" si="0">C4</f>
+        <v>56</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>8</v>
@@ -2187,318 +2214,290 @@
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
-        <v>45004</v>
-      </c>
-      <c r="B6" s="13">
+        <v>45046</v>
+      </c>
+      <c r="B6" s="12">
         <f>B5</f>
-        <v>40.800000000000004</v>
+        <v>47.600000000000009</v>
       </c>
       <c r="C6" s="10">
-        <f>C5</f>
-        <v>51</v>
+        <f t="shared" si="0"/>
+        <v>56</v>
       </c>
       <c r="G6" s="4">
         <f>C2</f>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H6" s="5">
         <f>G6-C16</f>
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="I6" s="6">
         <f>C16</f>
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
-        <v>45005</v>
-      </c>
-      <c r="B7" s="13">
+        <v>45047</v>
+      </c>
+      <c r="B7" s="12">
         <f>B6</f>
-        <v>40.800000000000004</v>
+        <v>47.600000000000009</v>
       </c>
       <c r="C7" s="10">
-        <f>C6</f>
-        <v>51</v>
+        <f t="shared" si="0"/>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
-        <v>45006</v>
-      </c>
-      <c r="B8" s="13">
-        <f>B7-3.4</f>
-        <v>37.400000000000006</v>
+        <v>45048</v>
+      </c>
+      <c r="B8" s="12">
+        <f>B7-C35</f>
+        <v>44.800000000000011</v>
       </c>
       <c r="C8" s="10">
-        <f>C7</f>
-        <v>51</v>
+        <f t="shared" si="0"/>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
-        <v>45007</v>
-      </c>
-      <c r="B9" s="13">
-        <f>B8-3.4</f>
-        <v>34.000000000000007</v>
+        <v>45049</v>
+      </c>
+      <c r="B9" s="12">
+        <f>B8-C35</f>
+        <v>42.000000000000014</v>
       </c>
       <c r="C9" s="10">
-        <f>C8-3</f>
-        <v>48</v>
+        <f t="shared" si="0"/>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
-        <v>45008</v>
-      </c>
-      <c r="B10" s="13">
-        <f>B9-3.4</f>
-        <v>30.600000000000009</v>
+        <v>45050</v>
+      </c>
+      <c r="B10" s="12">
+        <f>B9-C35</f>
+        <v>39.200000000000017</v>
       </c>
       <c r="C10" s="10">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
-        <v>45009</v>
-      </c>
-      <c r="B11" s="13">
-        <f>B10-3.4</f>
-        <v>27.20000000000001</v>
+        <v>45051</v>
+      </c>
+      <c r="B11" s="12">
+        <f>B10-C35</f>
+        <v>36.40000000000002</v>
       </c>
       <c r="C11" s="10">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
-        <v>45010</v>
-      </c>
-      <c r="B12" s="13">
-        <f>B11-3.4</f>
-        <v>23.800000000000011</v>
+        <v>45052</v>
+      </c>
+      <c r="B12" s="12">
+        <f>B11-C35</f>
+        <v>33.600000000000023</v>
       </c>
       <c r="C12" s="10">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
-        <v>45011</v>
-      </c>
-      <c r="B13" s="13">
+        <v>45053</v>
+      </c>
+      <c r="B13" s="12">
         <f>B12</f>
-        <v>23.800000000000011</v>
+        <v>33.600000000000023</v>
       </c>
       <c r="C13" s="10">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
-        <v>45012</v>
-      </c>
-      <c r="B14" s="13">
+        <v>45054</v>
+      </c>
+      <c r="B14" s="12">
         <f>B13</f>
-        <v>23.800000000000011</v>
+        <v>33.600000000000023</v>
       </c>
       <c r="C14" s="10">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
-        <v>45013</v>
-      </c>
-      <c r="B15" s="13">
-        <f>B14-3.4</f>
-        <v>20.400000000000013</v>
+        <v>45055</v>
+      </c>
+      <c r="B15" s="12">
+        <f>B14-C35</f>
+        <v>30.800000000000022</v>
       </c>
       <c r="C15" s="10">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
-        <v>45014</v>
-      </c>
-      <c r="B16" s="13">
-        <f>B15-3.4</f>
-        <v>17.000000000000014</v>
+      <c r="A16" s="9">
+        <v>45056</v>
+      </c>
+      <c r="B16" s="12">
+        <f>B15-C35</f>
+        <v>28.000000000000021</v>
       </c>
       <c r="C16" s="10">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
-        <v>45015</v>
-      </c>
-      <c r="B17" s="13">
-        <f>B16-3.4</f>
-        <v>13.600000000000014</v>
-      </c>
-      <c r="C17" s="10">
-        <v>48</v>
-      </c>
+      <c r="A17" s="9">
+        <v>45057</v>
+      </c>
+      <c r="B17" s="12">
+        <f>B16-C35</f>
+        <v>25.200000000000021</v>
+      </c>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
-        <v>45016</v>
-      </c>
-      <c r="B18" s="13">
-        <f>B17-3.4</f>
-        <v>10.200000000000014</v>
-      </c>
-      <c r="C18" s="10">
-        <v>48</v>
-      </c>
+      <c r="A18" s="9">
+        <v>45058</v>
+      </c>
+      <c r="B18" s="12">
+        <f>B17-C35</f>
+        <v>22.40000000000002</v>
+      </c>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
-        <v>45017</v>
-      </c>
-      <c r="B19" s="13">
-        <f t="shared" ref="B19:B27" si="0">B18</f>
-        <v>10.200000000000014</v>
-      </c>
-      <c r="C19" s="10">
-        <v>48</v>
-      </c>
+      <c r="A19" s="9">
+        <v>45059</v>
+      </c>
+      <c r="B19" s="12">
+        <f t="shared" ref="B19:B27" si="1">B18</f>
+        <v>22.40000000000002</v>
+      </c>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
-        <v>45018</v>
-      </c>
-      <c r="B20" s="13">
-        <f t="shared" si="0"/>
-        <v>10.200000000000014</v>
-      </c>
-      <c r="C20" s="10">
-        <v>48</v>
-      </c>
+      <c r="A20" s="9">
+        <v>45060</v>
+      </c>
+      <c r="B20" s="12">
+        <f t="shared" si="1"/>
+        <v>22.40000000000002</v>
+      </c>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="14">
-        <v>45019</v>
-      </c>
-      <c r="B21" s="13">
-        <f t="shared" si="0"/>
-        <v>10.200000000000014</v>
-      </c>
-      <c r="C21" s="10">
-        <v>48</v>
-      </c>
+      <c r="A21" s="9">
+        <v>45061</v>
+      </c>
+      <c r="B21" s="12">
+        <f>B20-C35</f>
+        <v>19.600000000000019</v>
+      </c>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="14">
-        <v>45020</v>
-      </c>
-      <c r="B22" s="13">
-        <f t="shared" si="0"/>
-        <v>10.200000000000014</v>
-      </c>
-      <c r="C22" s="10">
-        <v>48</v>
-      </c>
+      <c r="A22" s="9">
+        <v>45062</v>
+      </c>
+      <c r="B22" s="12">
+        <f>B21-C35</f>
+        <v>16.800000000000018</v>
+      </c>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="14">
-        <v>45021</v>
-      </c>
-      <c r="B23" s="13">
-        <f t="shared" si="0"/>
-        <v>10.200000000000014</v>
-      </c>
-      <c r="C23" s="10">
-        <v>48</v>
-      </c>
+      <c r="A23" s="9">
+        <v>45063</v>
+      </c>
+      <c r="B23" s="12">
+        <f>B22-C35</f>
+        <v>14.000000000000018</v>
+      </c>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="14">
-        <v>45022</v>
-      </c>
-      <c r="B24" s="13">
-        <f t="shared" si="0"/>
-        <v>10.200000000000014</v>
-      </c>
-      <c r="C24" s="10">
-        <v>48</v>
-      </c>
+      <c r="A24" s="9">
+        <v>45064</v>
+      </c>
+      <c r="B24" s="12">
+        <f>B23-C35</f>
+        <v>11.200000000000017</v>
+      </c>
+      <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="14">
-        <v>45023</v>
-      </c>
-      <c r="B25" s="13">
-        <f t="shared" si="0"/>
-        <v>10.200000000000014</v>
-      </c>
-      <c r="C25" s="10">
-        <v>48</v>
-      </c>
+      <c r="A25" s="9">
+        <v>45065</v>
+      </c>
+      <c r="B25" s="12">
+        <f>B24-C35</f>
+        <v>8.4000000000000163</v>
+      </c>
+      <c r="C25" s="10"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="14">
-        <v>45024</v>
-      </c>
-      <c r="B26" s="13">
-        <f t="shared" si="0"/>
-        <v>10.200000000000014</v>
-      </c>
-      <c r="C26" s="10">
-        <v>48</v>
-      </c>
+      <c r="A26" s="9">
+        <v>45066</v>
+      </c>
+      <c r="B26" s="12">
+        <f t="shared" si="1"/>
+        <v>8.4000000000000163</v>
+      </c>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="14">
-        <v>45025</v>
-      </c>
-      <c r="B27" s="13">
-        <f t="shared" si="0"/>
-        <v>10.200000000000014</v>
-      </c>
-      <c r="C27" s="10">
-        <v>48</v>
-      </c>
+      <c r="A27" s="9">
+        <v>45067</v>
+      </c>
+      <c r="B27" s="12">
+        <f t="shared" si="1"/>
+        <v>8.4000000000000163</v>
+      </c>
+      <c r="C27" s="10"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="14">
-        <v>45026</v>
-      </c>
-      <c r="B28" s="13">
-        <f>B27-3.4</f>
-        <v>6.8000000000000131</v>
-      </c>
-      <c r="C28" s="10">
-        <v>48</v>
-      </c>
+      <c r="A28" s="9">
+        <v>45068</v>
+      </c>
+      <c r="B28" s="12">
+        <f>B27-C35</f>
+        <v>5.6000000000000165</v>
+      </c>
+      <c r="C28" s="10"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="14">
-        <v>45027</v>
-      </c>
-      <c r="B29" s="13">
-        <f>B28-3.4</f>
-        <v>3.4000000000000132</v>
-      </c>
-      <c r="C29" s="10">
-        <v>48</v>
-      </c>
+      <c r="A29" s="9">
+        <v>45069</v>
+      </c>
+      <c r="B29" s="12">
+        <f>B28-C35</f>
+        <v>2.8000000000000167</v>
+      </c>
+      <c r="C29" s="10"/>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="11">
-        <v>45028</v>
+      <c r="A30" s="9">
+        <v>45070</v>
       </c>
       <c r="B30" s="5">
         <v>0</v>
       </c>
-      <c r="C30" s="6">
-        <v>48</v>
-      </c>
+      <c r="C30" s="6"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -2510,7 +2509,7 @@
         <v>4</v>
       </c>
       <c r="C33">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -2518,8 +2517,8 @@
         <v>9</v>
       </c>
       <c r="C34">
-        <f>C33/3</f>
-        <v>17</v>
+        <f>C33/4</f>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -2528,7 +2527,7 @@
       </c>
       <c r="C35">
         <f>C34/5</f>
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
     </row>
   </sheetData>

--- a/Scrum_Unterlagen/Burndown_Chart_Vorlage_Ausnahme.xlsx
+++ b/Scrum_Unterlagen/Burndown_Chart_Vorlage_Ausnahme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Startklar\Documents\GitHub\T1_TableCast\Scrum_Unterlagen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A78DAD3-4B56-4082-A4B1-7B3AB3920CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F060B6C4-FBBC-4E0D-A438-3CC8485EED99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{8A0F6DEF-9CCD-4085-B528-61F5806CE436}"/>
   </bookViews>
@@ -672,6 +672,27 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
@@ -2134,7 +2155,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2368,7 +2389,9 @@
         <f>B16-C35</f>
         <v>25.200000000000021</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="10">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
@@ -2378,7 +2401,9 @@
         <f>B17-C35</f>
         <v>22.40000000000002</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="10">
+        <v>16</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
@@ -2388,7 +2413,9 @@
         <f t="shared" ref="B19:B27" si="1">B18</f>
         <v>22.40000000000002</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="10">
+        <v>16</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
@@ -2398,7 +2425,9 @@
         <f t="shared" si="1"/>
         <v>22.40000000000002</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="10">
+        <v>16</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
@@ -2408,7 +2437,9 @@
         <f>B20-C35</f>
         <v>19.600000000000019</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="10">
+        <v>16</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
@@ -2418,7 +2449,9 @@
         <f>B21-C35</f>
         <v>16.800000000000018</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="10">
+        <v>16</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
@@ -2428,7 +2461,9 @@
         <f>B22-C35</f>
         <v>14.000000000000018</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="10">
+        <v>16</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="9">

--- a/Scrum_Unterlagen/Burndown_Chart_Vorlage_Ausnahme.xlsx
+++ b/Scrum_Unterlagen/Burndown_Chart_Vorlage_Ausnahme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Startklar\Documents\GitHub\T1_TableCast\Scrum_Unterlagen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F060B6C4-FBBC-4E0D-A438-3CC8485EED99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FD5784-AB5B-45A7-9C13-D8BD33830A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{8A0F6DEF-9CCD-4085-B528-61F5806CE436}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="12360" xr2:uid="{8A0F6DEF-9CCD-4085-B528-61F5806CE436}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -694,6 +694,27 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2155,7 +2176,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2198,7 +2219,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>45044</v>
       </c>
@@ -2223,17 +2244,8 @@
         <f t="shared" ref="C5:C9" si="0">C4</f>
         <v>56</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>45046</v>
       </c>
@@ -2245,20 +2257,8 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="G6" s="4">
-        <f>C2</f>
-        <v>56</v>
-      </c>
-      <c r="H6" s="5">
-        <f>G6-C16</f>
-        <v>40</v>
-      </c>
-      <c r="I6" s="6">
-        <f>C16</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>45047</v>
       </c>
@@ -2283,8 +2283,17 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>45049</v>
       </c>
@@ -2296,6 +2305,18 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
+      <c r="G9" s="4">
+        <f>C2</f>
+        <v>56</v>
+      </c>
+      <c r="H9" s="5">
+        <f>G9-I9</f>
+        <v>48</v>
+      </c>
+      <c r="I9" s="6">
+        <f>C30</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
@@ -2473,7 +2494,9 @@
         <f>B23-C35</f>
         <v>11.200000000000017</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="10">
+        <v>16</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
@@ -2483,7 +2506,9 @@
         <f>B24-C35</f>
         <v>8.4000000000000163</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="10">
+        <v>16</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
@@ -2493,7 +2518,9 @@
         <f t="shared" si="1"/>
         <v>8.4000000000000163</v>
       </c>
-      <c r="C26" s="10"/>
+      <c r="C26" s="10">
+        <v>16</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
@@ -2503,7 +2530,9 @@
         <f t="shared" si="1"/>
         <v>8.4000000000000163</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="10">
+        <v>16</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
@@ -2513,7 +2542,9 @@
         <f>B27-C35</f>
         <v>5.6000000000000165</v>
       </c>
-      <c r="C28" s="10"/>
+      <c r="C28" s="10">
+        <v>16</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
@@ -2523,7 +2554,9 @@
         <f>B28-C35</f>
         <v>2.8000000000000167</v>
       </c>
-      <c r="C29" s="10"/>
+      <c r="C29" s="10">
+        <v>16</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
@@ -2532,7 +2565,9 @@
       <c r="B30" s="5">
         <v>0</v>
       </c>
-      <c r="C30" s="6"/>
+      <c r="C30" s="6">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">

--- a/Scrum_Unterlagen/Burndown_Chart_Vorlage_Ausnahme.xlsx
+++ b/Scrum_Unterlagen/Burndown_Chart_Vorlage_Ausnahme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Startklar\Documents\GitHub\T1_TableCast\Scrum_Unterlagen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FD5784-AB5B-45A7-9C13-D8BD33830A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1397CF78-9AD0-4753-9EF9-44E4706DC47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="12360" xr2:uid="{8A0F6DEF-9CCD-4085-B528-61F5806CE436}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{8A0F6DEF-9CCD-4085-B528-61F5806CE436}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>Total:</t>
   </si>
   <si>
-    <t>durch 4</t>
+    <t>durch 3</t>
   </si>
 </sst>
 </file>
@@ -222,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -236,6 +236,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -304,191 +306,107 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$2:$A$30</c:f>
+              <c:f>Tabelle1!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>45042</c:v>
+                  <c:v>45077</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45043</c:v>
+                  <c:v>45078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45044</c:v>
+                  <c:v>45079</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45045</c:v>
+                  <c:v>45080</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45046</c:v>
+                  <c:v>45081</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45047</c:v>
+                  <c:v>45082</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45048</c:v>
+                  <c:v>45083</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45049</c:v>
+                  <c:v>45084</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45050</c:v>
+                  <c:v>45085</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45051</c:v>
+                  <c:v>45086</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45052</c:v>
+                  <c:v>45087</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45053</c:v>
+                  <c:v>45088</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45054</c:v>
+                  <c:v>45089</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45055</c:v>
+                  <c:v>45090</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45056</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45057</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45058</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45059</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>45060</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45061</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>45062</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>45063</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>45064</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>45065</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>45066</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>45067</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>45068</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>45069</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>45070</c:v>
+                  <c:v>45091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$2:$B$30</c:f>
+              <c:f>Tabelle1!$B$2:$B$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>56</c:v>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.2</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>47.600000000000009</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>47.600000000000009</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>47.600000000000009</c:v>
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44.800000000000011</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42.000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>39.200000000000017</c:v>
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.40000000000002</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33.600000000000023</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>33.600000000000023</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>33.600000000000023</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.800000000000022</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>28.000000000000021</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25.200000000000021</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>22.40000000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22.40000000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>22.40000000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19.600000000000019</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>16.800000000000018</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>14.000000000000018</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>11.200000000000017</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8.4000000000000163</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8.4000000000000163</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>8.4000000000000163</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.6000000000000165</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.8000000000000167</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -529,192 +447,108 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$2:$A$30</c:f>
+              <c:f>Tabelle1!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>45042</c:v>
+                  <c:v>45077</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45043</c:v>
+                  <c:v>45078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45044</c:v>
+                  <c:v>45079</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45045</c:v>
+                  <c:v>45080</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45046</c:v>
+                  <c:v>45081</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45047</c:v>
+                  <c:v>45082</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45048</c:v>
+                  <c:v>45083</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45049</c:v>
+                  <c:v>45084</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45050</c:v>
+                  <c:v>45085</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45051</c:v>
+                  <c:v>45086</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45052</c:v>
+                  <c:v>45087</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45053</c:v>
+                  <c:v>45088</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45054</c:v>
+                  <c:v>45089</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45055</c:v>
+                  <c:v>45090</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45056</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45057</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45058</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45059</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>45060</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45061</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>45062</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>45063</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>45064</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>45065</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>45066</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>45067</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>45068</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>45069</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>45070</c:v>
+                  <c:v>45091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$2:$C$30</c:f>
+              <c:f>Tabelle1!$C$2:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>56</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>56</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>56</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>56</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>56</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>56</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1595,16 +1429,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>735698</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>387222</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>29179</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>225368</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>106864</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>40005</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1619,8 +1453,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5574132" y="1848303"/>
-          <a:ext cx="283642" cy="1834608"/>
+          <a:off x="6010782" y="1873219"/>
+          <a:ext cx="512122" cy="1839626"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1666,22 +1500,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>81713</xdr:colOff>
+      <xdr:colOff>608242</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>8679</xdr:rowOff>
+      <xdr:rowOff>30711</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>361346</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>327884</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>31539</xdr:rowOff>
+      <xdr:rowOff>41537</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rechteck 5">
+        <xdr:cNvPr id="4" name="Rechteck 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6C68E76-87B1-4DFE-BE8D-C6F1F3620506}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AE1A6B5-A17F-4210-A944-9FF4A3A8517A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1689,148 +1523,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7302063" y="1841742"/>
-          <a:ext cx="279633" cy="1834608"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent3">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="de-AT" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>206280</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>20775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>485913</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>43635</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rechteck 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BEE8D42-5D32-4EF1-A59C-B88763141CCE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8220602" y="1853838"/>
-          <a:ext cx="279633" cy="1834608"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent3">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="de-AT" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>72812</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>13109</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>356454</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>35969</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rechteck 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B4EAA2D-4622-435B-B71A-6073E5A21459}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6499190" y="1846172"/>
-          <a:ext cx="283642" cy="1834608"/>
+          <a:off x="7829099" y="1861124"/>
+          <a:ext cx="513896" cy="1825111"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2175,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C88E1FE-E14A-4E89-9590-0A003BC27935}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="121" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2197,91 +1891,91 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
-        <v>45042</v>
+        <v>45077</v>
       </c>
       <c r="B2" s="12">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C2" s="10">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
-        <v>45043</v>
-      </c>
-      <c r="B3" s="12">
+        <v>45078</v>
+      </c>
+      <c r="B3" s="14">
         <f>B2-C35</f>
-        <v>53.2</v>
+        <v>45</v>
       </c>
       <c r="C3" s="10">
         <f>C2</f>
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
-        <v>45044</v>
-      </c>
-      <c r="B4" s="12">
+        <v>45079</v>
+      </c>
+      <c r="B4" s="14">
         <f>B3-C35</f>
-        <v>50.400000000000006</v>
+        <v>40</v>
       </c>
       <c r="C4" s="10">
         <f>C3</f>
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
-        <v>45045</v>
+        <v>45080</v>
       </c>
       <c r="B5" s="12">
         <f>B4-C35</f>
-        <v>47.600000000000009</v>
+        <v>35</v>
       </c>
       <c r="C5" s="10">
         <f t="shared" ref="C5:C9" si="0">C4</f>
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
-        <v>45046</v>
+        <v>45081</v>
       </c>
       <c r="B6" s="12">
         <f>B5</f>
-        <v>47.600000000000009</v>
+        <v>35</v>
       </c>
       <c r="C6" s="10">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
-        <v>45047</v>
+        <v>45082</v>
       </c>
       <c r="B7" s="12">
         <f>B6</f>
-        <v>47.600000000000009</v>
+        <v>35</v>
       </c>
       <c r="C7" s="10">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
-        <v>45048</v>
-      </c>
-      <c r="B8" s="12">
+        <v>45083</v>
+      </c>
+      <c r="B8" s="14">
         <f>B7-C35</f>
-        <v>44.800000000000011</v>
+        <v>30</v>
       </c>
       <c r="C8" s="10">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>8</v>
@@ -2295,279 +1989,179 @@
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
-        <v>45049</v>
-      </c>
-      <c r="B9" s="12">
+        <v>45084</v>
+      </c>
+      <c r="B9" s="14">
         <f>B8-C35</f>
-        <v>42.000000000000014</v>
+        <v>25</v>
       </c>
       <c r="C9" s="10">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G9" s="4">
         <f>C2</f>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H9" s="5">
-        <f>G9-I9</f>
+        <v>2</v>
+      </c>
+      <c r="I9" s="6">
         <v>48</v>
-      </c>
-      <c r="I9" s="6">
-        <f>C30</f>
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
-        <v>45050</v>
+        <v>45085</v>
       </c>
       <c r="B10" s="12">
         <f>B9-C35</f>
-        <v>39.200000000000017</v>
+        <v>20</v>
       </c>
       <c r="C10" s="10">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
-        <v>45051</v>
-      </c>
-      <c r="B11" s="12">
+        <v>45086</v>
+      </c>
+      <c r="B11" s="14">
         <f>B10-C35</f>
-        <v>36.40000000000002</v>
+        <v>15</v>
       </c>
       <c r="C11" s="10">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
-        <v>45052</v>
-      </c>
-      <c r="B12" s="12">
+        <v>45087</v>
+      </c>
+      <c r="B12" s="14">
         <f>B11-C35</f>
-        <v>33.600000000000023</v>
+        <v>10</v>
       </c>
       <c r="C12" s="10">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
-        <v>45053</v>
-      </c>
-      <c r="B13" s="12">
+        <v>45088</v>
+      </c>
+      <c r="B13" s="14">
         <f>B12</f>
-        <v>33.600000000000023</v>
+        <v>10</v>
       </c>
       <c r="C13" s="10">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
-        <v>45054</v>
-      </c>
-      <c r="B14" s="12">
+        <v>45089</v>
+      </c>
+      <c r="B14" s="14">
         <f>B13</f>
-        <v>33.600000000000023</v>
+        <v>10</v>
       </c>
       <c r="C14" s="10">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
-        <v>45055</v>
-      </c>
-      <c r="B15" s="12">
+        <v>45090</v>
+      </c>
+      <c r="B15" s="14">
         <f>B14-C35</f>
-        <v>30.800000000000022</v>
+        <v>5</v>
       </c>
       <c r="C15" s="10">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
-        <v>45056</v>
+        <v>45091</v>
       </c>
       <c r="B16" s="12">
-        <f>B15-C35</f>
-        <v>28.000000000000021</v>
+        <v>0</v>
       </c>
       <c r="C16" s="10">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
-        <v>45057</v>
-      </c>
-      <c r="B17" s="12">
-        <f>B16-C35</f>
-        <v>25.200000000000021</v>
-      </c>
-      <c r="C17" s="10">
-        <v>16</v>
-      </c>
+      <c r="A17" s="9"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
-        <v>45058</v>
-      </c>
-      <c r="B18" s="12">
-        <f>B17-C35</f>
-        <v>22.40000000000002</v>
-      </c>
-      <c r="C18" s="10">
-        <v>16</v>
-      </c>
+      <c r="A18" s="9"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
-        <v>45059</v>
-      </c>
-      <c r="B19" s="12">
-        <f t="shared" ref="B19:B27" si="1">B18</f>
-        <v>22.40000000000002</v>
-      </c>
-      <c r="C19" s="10">
-        <v>16</v>
-      </c>
+      <c r="A19" s="9"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
-        <v>45060</v>
-      </c>
-      <c r="B20" s="12">
-        <f t="shared" si="1"/>
-        <v>22.40000000000002</v>
-      </c>
-      <c r="C20" s="10">
-        <v>16</v>
-      </c>
+      <c r="A20" s="9"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
-        <v>45061</v>
-      </c>
-      <c r="B21" s="12">
-        <f>B20-C35</f>
-        <v>19.600000000000019</v>
-      </c>
-      <c r="C21" s="10">
-        <v>16</v>
-      </c>
+      <c r="A21" s="9"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
-        <v>45062</v>
-      </c>
-      <c r="B22" s="12">
-        <f>B21-C35</f>
-        <v>16.800000000000018</v>
-      </c>
-      <c r="C22" s="10">
-        <v>16</v>
-      </c>
+      <c r="A22" s="9"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
-        <v>45063</v>
-      </c>
-      <c r="B23" s="12">
-        <f>B22-C35</f>
-        <v>14.000000000000018</v>
-      </c>
-      <c r="C23" s="10">
-        <v>16</v>
-      </c>
+      <c r="A23" s="9"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
-        <v>45064</v>
-      </c>
-      <c r="B24" s="12">
-        <f>B23-C35</f>
-        <v>11.200000000000017</v>
-      </c>
-      <c r="C24" s="10">
-        <v>16</v>
-      </c>
+      <c r="A24" s="9"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
-        <v>45065</v>
-      </c>
-      <c r="B25" s="12">
-        <f>B24-C35</f>
-        <v>8.4000000000000163</v>
-      </c>
-      <c r="C25" s="10">
-        <v>16</v>
-      </c>
+      <c r="A25" s="9"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
-        <v>45066</v>
-      </c>
-      <c r="B26" s="12">
-        <f t="shared" si="1"/>
-        <v>8.4000000000000163</v>
-      </c>
-      <c r="C26" s="10">
-        <v>16</v>
-      </c>
+      <c r="A26" s="9"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
-        <v>45067</v>
-      </c>
-      <c r="B27" s="12">
-        <f t="shared" si="1"/>
-        <v>8.4000000000000163</v>
-      </c>
-      <c r="C27" s="10">
-        <v>16</v>
-      </c>
+      <c r="A27" s="9"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
-        <v>45068</v>
-      </c>
-      <c r="B28" s="12">
-        <f>B27-C35</f>
-        <v>5.6000000000000165</v>
-      </c>
-      <c r="C28" s="10">
-        <v>16</v>
-      </c>
+      <c r="A28" s="9"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
-        <v>45069</v>
-      </c>
-      <c r="B29" s="12">
-        <f>B28-C35</f>
-        <v>2.8000000000000167</v>
-      </c>
-      <c r="C29" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="9">
-        <v>45070</v>
-      </c>
-      <c r="B30" s="5">
-        <v>0</v>
-      </c>
-      <c r="C30" s="6">
-        <v>8</v>
-      </c>
+      <c r="A29" s="9"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="9"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -2579,7 +2173,7 @@
         <v>4</v>
       </c>
       <c r="C33">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -2587,8 +2181,8 @@
         <v>9</v>
       </c>
       <c r="C34">
-        <f>C33/4</f>
-        <v>14</v>
+        <f>C33/2</f>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -2597,7 +2191,7 @@
       </c>
       <c r="C35">
         <f>C34/5</f>
-        <v>2.8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
